--- a/Matriz de confusión 2^5.xlsx
+++ b/Matriz de confusión 2^5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC742DB-51D5-482F-B2B4-F158FEEC22F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AE05FC-B3BC-4FA1-822C-3749D3322123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$AK$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$AL$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Yates</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>2^(5-3)</t>
   </si>
 </sst>
 </file>
@@ -316,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,11 +338,62 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="79">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -361,6 +415,555 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -734,13 +1337,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B516856A-01D2-44BB-A099-3D88717A7A82}">
-  <dimension ref="A2:AK34"/>
+  <dimension ref="B2:AL34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK22" sqref="AK22"/>
+      <selection pane="bottomRight" activeCell="AH15" sqref="AH15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -774,10 +1377,11 @@
     <col min="35" max="35" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="16384" width="9.140625" style="2"/>
+    <col min="38" max="38" width="9.140625" style="11"/>
+    <col min="39" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>60</v>
       </c>
@@ -886,8 +1490,11 @@
       <c r="AK2" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AL2" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="3" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -1022,13 +1629,16 @@
       <c r="AK3" s="7">
         <v>1</v>
       </c>
+      <c r="AL3" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B4" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="D4" s="8">
         <v>1</v>
@@ -1037,18 +1647,18 @@
         <v>1</v>
       </c>
       <c r="F4" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G4" s="7">
         <f>+E4*F4</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H4" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
         <f>+E4*H4</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J4" s="7">
         <f>+F4*H4</f>
@@ -1059,11 +1669,11 @@
         <v>1</v>
       </c>
       <c r="L4" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M4" s="7">
         <f>+E4*L4</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
         <f>+F4*L4</f>
@@ -1083,11 +1693,11 @@
       </c>
       <c r="R4" s="7">
         <f>+J4*L4</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S4" s="7">
         <f>+K4*L4</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T4" s="7">
         <v>-1</v>
@@ -1098,19 +1708,19 @@
       </c>
       <c r="V4" s="7">
         <f>+F4*T4</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W4" s="7">
         <f>+G4*T4</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X4" s="7">
         <f>+I4*T4</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y4" s="7">
         <f>+I4*T4</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z4" s="7">
         <f>+J4*T4</f>
@@ -1122,11 +1732,11 @@
       </c>
       <c r="AB4" s="7">
         <f>+L4*T4</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC4" s="7">
         <f>+M4*T4</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD4" s="7">
         <f>+N4*T4</f>
@@ -1146,45 +1756,48 @@
       </c>
       <c r="AH4" s="7">
         <f>+R4*T4</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AI4" s="7">
         <f>+S4*T4</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK4" s="7">
         <v>2</v>
       </c>
+      <c r="AL4" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
-        <v>3</v>
+    <row r="5" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>28</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
       </c>
       <c r="E5" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5" s="7">
         <f>+E5*F5</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H5" s="7">
         <v>-1</v>
       </c>
       <c r="I5" s="7">
         <f>+E5*H5</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J5" s="7">
         <f>+F5*H5</f>
@@ -1192,10 +1805,10 @@
       </c>
       <c r="K5" s="7">
         <f>+G5*H5</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L5" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M5" s="7">
         <f>+E5*L5</f>
@@ -1203,7 +1816,7 @@
       </c>
       <c r="N5" s="7">
         <f>+F5*L5</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O5" s="7">
         <f>+G5*L5</f>
@@ -1211,7 +1824,7 @@
       </c>
       <c r="P5" s="7">
         <f>+H5*L5</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q5" s="7">
         <f>+I5*L5</f>
@@ -1219,14 +1832,14 @@
       </c>
       <c r="R5" s="7">
         <f>+J5*L5</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S5" s="7">
         <f>+K5*L5</f>
         <v>-1</v>
       </c>
       <c r="T5" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U5" s="7">
         <f>+E5*T5</f>
@@ -1234,7 +1847,7 @@
       </c>
       <c r="V5" s="7">
         <f>+F5*T5</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W5" s="7">
         <f>+G5*T5</f>
@@ -1250,7 +1863,7 @@
       </c>
       <c r="Z5" s="7">
         <f>+J5*T5</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA5" s="7">
         <f>+K5*T5</f>
@@ -1262,7 +1875,7 @@
       </c>
       <c r="AC5" s="7">
         <f>+M5*T5</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="7">
         <f>+N5*T5</f>
@@ -1270,7 +1883,7 @@
       </c>
       <c r="AE5" s="7">
         <f>+O5*T5</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="7">
         <f>+P5*T5</f>
@@ -1278,7 +1891,7 @@
       </c>
       <c r="AG5" s="7">
         <f>+Q5*T5</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH5" s="7">
         <f>+R5*T5</f>
@@ -1286,37 +1899,40 @@
       </c>
       <c r="AI5" s="7">
         <f>+S5*T5</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="7">
         <v>2</v>
       </c>
-      <c r="AK5" s="7">
-        <v>2</v>
-      </c>
     </row>
-    <row r="6" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B6" s="7">
-        <v>4</v>
+    <row r="6" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>21</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D6" s="8">
         <v>1</v>
       </c>
       <c r="E6" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F6" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G6" s="7">
         <f>+E6*F6</f>
         <v>1</v>
       </c>
       <c r="H6" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
         <f>+E6*H6</f>
@@ -1328,18 +1944,18 @@
       </c>
       <c r="K6" s="7">
         <f>+G6*H6</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L6" s="7">
         <v>-1</v>
       </c>
       <c r="M6" s="7">
         <f>+E6*L6</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
         <f>+F6*L6</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O6" s="7">
         <f>+G6*L6</f>
@@ -1347,7 +1963,7 @@
       </c>
       <c r="P6" s="7">
         <f>+H6*L6</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q6" s="7">
         <f>+I6*L6</f>
@@ -1359,10 +1975,10 @@
       </c>
       <c r="S6" s="7">
         <f>+K6*L6</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T6" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U6" s="7">
         <f>+E6*T6</f>
@@ -1374,19 +1990,19 @@
       </c>
       <c r="W6" s="7">
         <f>+G6*T6</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X6" s="7">
         <f>+I6*T6</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y6" s="7">
         <f>+I6*T6</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z6" s="7">
         <f>+J6*T6</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA6" s="7">
         <f>+K6*T6</f>
@@ -1394,7 +2010,7 @@
       </c>
       <c r="AB6" s="7">
         <f>+L6*T6</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC6" s="7">
         <f>+M6*T6</f>
@@ -1406,7 +2022,7 @@
       </c>
       <c r="AE6" s="7">
         <f>+O6*T6</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF6" s="7">
         <f>+P6*T6</f>
@@ -1414,11 +2030,11 @@
       </c>
       <c r="AG6" s="7">
         <f>+Q6*T6</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="7">
         <f>+R6*T6</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="7">
         <f>+S6*T6</f>
@@ -1428,31 +2044,34 @@
         <v>1</v>
       </c>
       <c r="AK6" s="7">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AL6" s="7">
+        <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
-        <v>5</v>
+    <row r="7" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
       </c>
       <c r="E7" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F7" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G7" s="7">
         <f>+E7*F7</f>
         <v>1</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I7" s="7">
         <f>+E7*H7</f>
@@ -1464,18 +2083,18 @@
       </c>
       <c r="K7" s="7">
         <f>+G7*H7</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L7" s="7">
         <v>-1</v>
       </c>
       <c r="M7" s="7">
         <f>+E7*L7</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N7" s="7">
         <f>+F7*L7</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O7" s="7">
         <f>+G7*L7</f>
@@ -1483,7 +2102,7 @@
       </c>
       <c r="P7" s="7">
         <f>+H7*L7</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="7">
         <f>+I7*L7</f>
@@ -1495,18 +2114,18 @@
       </c>
       <c r="S7" s="7">
         <f>+K7*L7</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T7" s="7">
         <v>-1</v>
       </c>
       <c r="U7" s="7">
         <f>+E7*T7</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V7" s="7">
         <f>+F7*T7</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W7" s="7">
         <f>+G7*T7</f>
@@ -1526,7 +2145,7 @@
       </c>
       <c r="AA7" s="7">
         <f>+K7*T7</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB7" s="7">
         <f>+L7*T7</f>
@@ -1534,11 +2153,11 @@
       </c>
       <c r="AC7" s="7">
         <f>+M7*T7</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="7">
         <f>+N7*T7</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE7" s="7">
         <f>+O7*T7</f>
@@ -1546,7 +2165,7 @@
       </c>
       <c r="AF7" s="7">
         <f>+P7*T7</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AG7" s="7">
         <f>+Q7*T7</f>
@@ -1558,41 +2177,44 @@
       </c>
       <c r="AI7" s="7">
         <f>+S7*T7</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK7" s="7">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
-        <v>6</v>
+    <row r="8" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>13</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D8" s="8">
         <v>1</v>
       </c>
       <c r="E8" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F8" s="7">
         <v>-1</v>
       </c>
       <c r="G8" s="7">
         <f>+E8*F8</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
       <c r="I8" s="7">
         <f>+E8*H8</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J8" s="7">
         <f>+F8*H8</f>
@@ -1600,10 +2222,10 @@
       </c>
       <c r="K8" s="7">
         <f>+G8*H8</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L8" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M8" s="7">
         <f>+E8*L8</f>
@@ -1611,7 +2233,7 @@
       </c>
       <c r="N8" s="7">
         <f>+F8*L8</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O8" s="7">
         <f>+G8*L8</f>
@@ -1619,7 +2241,7 @@
       </c>
       <c r="P8" s="7">
         <f>+H8*L8</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="7">
         <f>+I8*L8</f>
@@ -1627,7 +2249,7 @@
       </c>
       <c r="R8" s="7">
         <f>+J8*L8</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S8" s="7">
         <f>+K8*L8</f>
@@ -1638,7 +2260,7 @@
       </c>
       <c r="U8" s="7">
         <f>+E8*T8</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V8" s="7">
         <f>+F8*T8</f>
@@ -1646,15 +2268,15 @@
       </c>
       <c r="W8" s="7">
         <f>+G8*T8</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X8" s="7">
         <f>+I8*T8</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="7">
         <f>+I8*T8</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="7">
         <f>+J8*T8</f>
@@ -1662,11 +2284,11 @@
       </c>
       <c r="AA8" s="7">
         <f>+K8*T8</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB8" s="7">
         <f>+L8*T8</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC8" s="7">
         <f>+M8*T8</f>
@@ -1674,7 +2296,7 @@
       </c>
       <c r="AD8" s="7">
         <f>+N8*T8</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE8" s="7">
         <f>+O8*T8</f>
@@ -1682,7 +2304,7 @@
       </c>
       <c r="AF8" s="7">
         <f>+P8*T8</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AG8" s="7">
         <f>+Q8*T8</f>
@@ -1690,7 +2312,7 @@
       </c>
       <c r="AH8" s="7">
         <f>+R8*T8</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AI8" s="7">
         <f>+S8*T8</f>
@@ -1700,15 +2322,18 @@
         <v>1</v>
       </c>
       <c r="AK8" s="7">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D9" s="8">
         <v>1</v>
@@ -1717,18 +2342,18 @@
         <v>-1</v>
       </c>
       <c r="F9" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G9" s="7">
         <f>+E9*F9</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I9" s="7">
         <f>+E9*H9</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J9" s="7">
         <f>+F9*H9</f>
@@ -1739,11 +2364,11 @@
         <v>-1</v>
       </c>
       <c r="L9" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M9" s="7">
         <f>+E9*L9</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N9" s="7">
         <f>+F9*L9</f>
@@ -1763,18 +2388,18 @@
       </c>
       <c r="R9" s="7">
         <f>+J9*L9</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S9" s="7">
         <f>+K9*L9</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T9" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U9" s="7">
         <f>+E9*T9</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V9" s="7">
         <f>+F9*T9</f>
@@ -1794,11 +2419,11 @@
       </c>
       <c r="Z9" s="7">
         <f>+J9*T9</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="7">
         <f>+K9*T9</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB9" s="7">
         <f>+L9*T9</f>
@@ -1810,19 +2435,19 @@
       </c>
       <c r="AD9" s="7">
         <f>+N9*T9</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE9" s="7">
         <f>+O9*T9</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF9" s="7">
         <f>+P9*T9</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AG9" s="7">
         <f>+Q9*T9</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AH9" s="7">
         <f>+R9*T9</f>
@@ -1836,15 +2461,18 @@
         <v>1</v>
       </c>
       <c r="AK9" s="7">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AL9" s="7">
+        <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8">
         <v>1</v>
@@ -1906,81 +2534,84 @@
         <v>-1</v>
       </c>
       <c r="T10" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U10" s="7">
         <f>+E10*T10</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V10" s="7">
         <f>+F10*T10</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W10" s="7">
         <f>+G10*T10</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X10" s="7">
         <f>+I10*T10</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="7">
         <f>+I10*T10</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="7">
         <f>+J10*T10</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA10" s="7">
         <f>+K10*T10</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="7">
         <f>+L10*T10</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC10" s="7">
         <f>+M10*T10</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD10" s="7">
         <f>+N10*T10</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE10" s="7">
         <f>+O10*T10</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF10" s="7">
         <f>+P10*T10</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AG10" s="7">
         <f>+Q10*T10</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH10" s="7">
         <f>+R10*T10</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AI10" s="7">
         <f>+S10*T10</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="7">
         <v>2</v>
       </c>
-      <c r="AK10" s="7">
+      <c r="AL10" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
@@ -1989,18 +2620,18 @@
         <v>-1</v>
       </c>
       <c r="F11" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G11" s="7">
         <f>+E11*F11</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H11" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
         <f>+E11*H11</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J11" s="7">
         <f>+F11*H11</f>
@@ -2019,19 +2650,19 @@
       </c>
       <c r="N11" s="7">
         <f>+F11*L11</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O11" s="7">
         <f>+G11*L11</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P11" s="7">
         <f>+H11*L11</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="7">
         <f>+I11*L11</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R11" s="7">
         <f>+J11*L11</f>
@@ -2042,11 +2673,11 @@
         <v>-1</v>
       </c>
       <c r="T11" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U11" s="7">
         <f>+E11*T11</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V11" s="7">
         <f>+F11*T11</f>
@@ -2066,19 +2697,19 @@
       </c>
       <c r="Z11" s="7">
         <f>+J11*T11</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA11" s="7">
         <f>+K11*T11</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB11" s="7">
         <f>+L11*T11</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC11" s="7">
         <f>+M11*T11</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD11" s="7">
         <f>+N11*T11</f>
@@ -2098,25 +2729,28 @@
       </c>
       <c r="AH11" s="7">
         <f>+R11*T11</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AI11" s="7">
         <f>+S11*T11</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK11" s="7">
         <v>3</v>
       </c>
+      <c r="AL11" s="7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
+        <v>18</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="D12" s="8">
         <v>1</v>
@@ -2147,66 +2781,66 @@
         <v>1</v>
       </c>
       <c r="L12" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M12" s="7">
         <f>+E12*L12</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N12" s="7">
         <f>+F12*L12</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O12" s="7">
         <f>+G12*L12</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P12" s="7">
         <f>+H12*L12</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="7">
         <f>+I12*L12</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R12" s="7">
         <f>+J12*L12</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S12" s="7">
         <f>+K12*L12</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T12" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U12" s="7">
         <f>+E12*T12</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V12" s="7">
         <f>+F12*T12</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W12" s="7">
         <f>+G12*T12</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X12" s="7">
         <f>+I12*T12</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y12" s="7">
         <f>+I12*T12</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z12" s="7">
         <f>+J12*T12</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="7">
         <f>+K12*T12</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="7">
         <f>+L12*T12</f>
@@ -2246,29 +2880,32 @@
       <c r="AK12" s="7">
         <v>4</v>
       </c>
+      <c r="AL12" s="7">
+        <v>5</v>
+      </c>
     </row>
-    <row r="13" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
-        <v>11</v>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>6</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13" s="8">
         <v>1</v>
       </c>
       <c r="E13" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F13" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G13" s="7">
         <f>+E13*F13</f>
         <v>-1</v>
       </c>
       <c r="H13" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
         <f>+E13*H13</f>
@@ -2280,10 +2917,10 @@
       </c>
       <c r="K13" s="7">
         <f>+G13*H13</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L13" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M13" s="7">
         <f>+E13*L13</f>
@@ -2295,7 +2932,7 @@
       </c>
       <c r="O13" s="7">
         <f>+G13*L13</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P13" s="7">
         <f>+H13*L13</f>
@@ -2303,11 +2940,11 @@
       </c>
       <c r="Q13" s="7">
         <f>+I13*L13</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R13" s="7">
         <f>+J13*L13</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S13" s="7">
         <f>+K13*L13</f>
@@ -2318,11 +2955,11 @@
       </c>
       <c r="U13" s="7">
         <f>+E13*T13</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V13" s="7">
         <f>+F13*T13</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W13" s="7">
         <f>+G13*T13</f>
@@ -2342,11 +2979,11 @@
       </c>
       <c r="AA13" s="7">
         <f>+K13*T13</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB13" s="7">
         <f>+L13*T13</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC13" s="7">
         <f>+M13*T13</f>
@@ -2358,7 +2995,7 @@
       </c>
       <c r="AE13" s="7">
         <f>+O13*T13</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF13" s="7">
         <f>+P13*T13</f>
@@ -2366,11 +3003,11 @@
       </c>
       <c r="AG13" s="7">
         <f>+Q13*T13</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AH13" s="7">
         <f>+R13*T13</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AI13" s="7">
         <f>+S13*T13</f>
@@ -2380,35 +3017,38 @@
         <v>1</v>
       </c>
       <c r="AK13" s="7">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="AL13" s="7">
+        <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
+    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>11</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="D14" s="8">
         <v>1</v>
       </c>
       <c r="E14" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F14" s="7">
         <v>1</v>
       </c>
       <c r="G14" s="7">
         <f>+E14*F14</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H14" s="7">
         <v>-1</v>
       </c>
       <c r="I14" s="7">
         <f>+E14*H14</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J14" s="7">
         <f>+F14*H14</f>
@@ -2416,14 +3056,14 @@
       </c>
       <c r="K14" s="7">
         <f>+G14*H14</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L14" s="7">
         <v>1</v>
       </c>
       <c r="M14" s="7">
         <f>+E14*L14</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N14" s="7">
         <f>+F14*L14</f>
@@ -2431,7 +3071,7 @@
       </c>
       <c r="O14" s="7">
         <f>+G14*L14</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P14" s="7">
         <f>+H14*L14</f>
@@ -2439,7 +3079,7 @@
       </c>
       <c r="Q14" s="7">
         <f>+I14*L14</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R14" s="7">
         <f>+J14*L14</f>
@@ -2447,14 +3087,14 @@
       </c>
       <c r="S14" s="7">
         <f>+K14*L14</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T14" s="7">
         <v>-1</v>
       </c>
       <c r="U14" s="7">
         <f>+E14*T14</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V14" s="7">
         <f>+F14*T14</f>
@@ -2462,15 +3102,15 @@
       </c>
       <c r="W14" s="7">
         <f>+G14*T14</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X14" s="7">
         <f>+I14*T14</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y14" s="7">
         <f>+I14*T14</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z14" s="7">
         <f>+J14*T14</f>
@@ -2478,7 +3118,7 @@
       </c>
       <c r="AA14" s="7">
         <f>+K14*T14</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB14" s="7">
         <f>+L14*T14</f>
@@ -2486,7 +3126,7 @@
       </c>
       <c r="AC14" s="7">
         <f>+M14*T14</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="7">
         <f>+N14*T14</f>
@@ -2494,7 +3134,7 @@
       </c>
       <c r="AE14" s="7">
         <f>+O14*T14</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF14" s="7">
         <f>+P14*T14</f>
@@ -2502,7 +3142,7 @@
       </c>
       <c r="AG14" s="7">
         <f>+Q14*T14</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH14" s="7">
         <f>+R14*T14</f>
@@ -2510,41 +3150,44 @@
       </c>
       <c r="AI14" s="7">
         <f>+S14*T14</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK14" s="7">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AL14" s="7">
+        <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
-        <v>13</v>
+    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>30</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="D15" s="8">
         <v>1</v>
       </c>
       <c r="E15" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F15" s="7">
         <v>-1</v>
       </c>
       <c r="G15" s="7">
         <f>+E15*F15</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
       </c>
       <c r="I15" s="7">
         <f>+E15*H15</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J15" s="7">
         <f>+F15*H15</f>
@@ -2552,14 +3195,14 @@
       </c>
       <c r="K15" s="7">
         <f>+G15*H15</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L15" s="7">
         <v>1</v>
       </c>
       <c r="M15" s="7">
         <f>+E15*L15</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N15" s="7">
         <f>+F15*L15</f>
@@ -2567,7 +3210,7 @@
       </c>
       <c r="O15" s="7">
         <f>+G15*L15</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P15" s="7">
         <f>+H15*L15</f>
@@ -2575,7 +3218,7 @@
       </c>
       <c r="Q15" s="7">
         <f>+I15*L15</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R15" s="7">
         <f>+J15*L15</f>
@@ -2583,10 +3226,10 @@
       </c>
       <c r="S15" s="7">
         <f>+K15*L15</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T15" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U15" s="7">
         <f>+E15*T15</f>
@@ -2594,7 +3237,7 @@
       </c>
       <c r="V15" s="7">
         <f>+F15*T15</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W15" s="7">
         <f>+G15*T15</f>
@@ -2610,7 +3253,7 @@
       </c>
       <c r="Z15" s="7">
         <f>+J15*T15</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA15" s="7">
         <f>+K15*T15</f>
@@ -2618,7 +3261,7 @@
       </c>
       <c r="AB15" s="7">
         <f>+L15*T15</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="7">
         <f>+M15*T15</f>
@@ -2626,7 +3269,7 @@
       </c>
       <c r="AD15" s="7">
         <f>+N15*T15</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE15" s="7">
         <f>+O15*T15</f>
@@ -2634,7 +3277,7 @@
       </c>
       <c r="AF15" s="7">
         <f>+P15*T15</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AG15" s="7">
         <f>+Q15*T15</f>
@@ -2642,7 +3285,7 @@
       </c>
       <c r="AH15" s="7">
         <f>+R15*T15</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AI15" s="7">
         <f>+S15*T15</f>
@@ -2652,31 +3295,34 @@
         <v>1</v>
       </c>
       <c r="AK15" s="7">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AL15" s="7">
+        <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
-        <v>14</v>
+    <row r="16" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>19</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D16" s="8">
         <v>1</v>
       </c>
       <c r="E16" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F16" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G16" s="7">
         <f>+E16*F16</f>
         <v>-1</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I16" s="7">
         <f>+E16*H16</f>
@@ -2688,10 +3334,10 @@
       </c>
       <c r="K16" s="7">
         <f>+G16*H16</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L16" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M16" s="7">
         <f>+E16*L16</f>
@@ -2703,7 +3349,7 @@
       </c>
       <c r="O16" s="7">
         <f>+G16*L16</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P16" s="7">
         <f>+H16*L16</f>
@@ -2711,18 +3357,18 @@
       </c>
       <c r="Q16" s="7">
         <f>+I16*L16</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R16" s="7">
         <f>+J16*L16</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S16" s="7">
         <f>+K16*L16</f>
         <v>-1</v>
       </c>
       <c r="T16" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U16" s="7">
         <f>+E16*T16</f>
@@ -2734,19 +3380,19 @@
       </c>
       <c r="W16" s="7">
         <f>+G16*T16</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X16" s="7">
         <f>+I16*T16</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="7">
         <f>+I16*T16</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="7">
         <f>+J16*T16</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA16" s="7">
         <f>+K16*T16</f>
@@ -2758,11 +3404,11 @@
       </c>
       <c r="AC16" s="7">
         <f>+M16*T16</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="7">
         <f>+N16*T16</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE16" s="7">
         <f>+O16*T16</f>
@@ -2770,7 +3416,7 @@
       </c>
       <c r="AF16" s="7">
         <f>+P16*T16</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AG16" s="7">
         <f>+Q16*T16</f>
@@ -2782,21 +3428,24 @@
       </c>
       <c r="AI16" s="7">
         <f>+S16*T16</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK16" s="7">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AL16" s="7">
+        <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D17" s="8">
         <v>1</v>
@@ -2827,35 +3476,35 @@
         <v>-1</v>
       </c>
       <c r="L17" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M17" s="7">
         <f>+E17*L17</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
         <f>+F17*L17</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O17" s="7">
         <f>+G17*L17</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P17" s="7">
         <f>+H17*L17</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q17" s="7">
         <f>+I17*L17</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R17" s="7">
         <f>+J17*L17</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S17" s="7">
         <f>+K17*L17</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T17" s="7">
         <v>-1</v>
@@ -2890,49 +3539,52 @@
       </c>
       <c r="AB17" s="7">
         <f>+L17*T17</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="7">
         <f>+M17*T17</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD17" s="7">
         <f>+N17*T17</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="7">
         <f>+O17*T17</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF17" s="7">
         <f>+P17*T17</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AG17" s="7">
         <f>+Q17*T17</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH17" s="7">
         <f>+R17*T17</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AI17" s="7">
         <f>+S17*T17</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AJ17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK17" s="7">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AL17" s="7">
+        <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D18" s="8">
         <v>1</v>
@@ -2941,18 +3593,18 @@
         <v>1</v>
       </c>
       <c r="F18" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G18" s="7">
         <f>+E18*F18</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I18" s="7">
         <f>+E18*H18</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J18" s="7">
         <f>+F18*H18</f>
@@ -2971,19 +3623,19 @@
       </c>
       <c r="N18" s="7">
         <f>+F18*L18</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O18" s="7">
         <f>+G18*L18</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P18" s="7">
         <f>+H18*L18</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q18" s="7">
         <f>+I18*L18</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R18" s="7">
         <f>+J18*L18</f>
@@ -3002,19 +3654,19 @@
       </c>
       <c r="V18" s="7">
         <f>+F18*T18</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W18" s="7">
         <f>+G18*T18</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X18" s="7">
         <f>+I18*T18</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="7">
         <f>+I18*T18</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="7">
         <f>+J18*T18</f>
@@ -3034,19 +3686,19 @@
       </c>
       <c r="AD18" s="7">
         <f>+N18*T18</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE18" s="7">
         <f>+O18*T18</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF18" s="7">
         <f>+P18*T18</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AG18" s="7">
         <f>+Q18*T18</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AH18" s="7">
         <f>+R18*T18</f>
@@ -3060,15 +3712,18 @@
         <v>1</v>
       </c>
       <c r="AK18" s="7">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="AL18" s="7">
+        <v>8</v>
       </c>
     </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D19" s="8">
         <v>1</v>
@@ -3077,18 +3732,18 @@
         <v>-1</v>
       </c>
       <c r="F19" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G19" s="7">
         <f>+E19*F19</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H19" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
         <f>+E19*H19</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J19" s="7">
         <f>+F19*H19</f>
@@ -3107,19 +3762,19 @@
       </c>
       <c r="N19" s="7">
         <f>+F19*L19</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O19" s="7">
         <f>+G19*L19</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P19" s="7">
         <f>+H19*L19</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q19" s="7">
         <f>+I19*L19</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R19" s="7">
         <f>+J19*L19</f>
@@ -3138,19 +3793,19 @@
       </c>
       <c r="V19" s="7">
         <f>+F19*T19</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W19" s="7">
         <f>+G19*T19</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X19" s="7">
         <f>+I19*T19</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y19" s="7">
         <f>+I19*T19</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z19" s="7">
         <f>+J19*T19</f>
@@ -3170,19 +3825,19 @@
       </c>
       <c r="AD19" s="7">
         <f>+N19*T19</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE19" s="7">
         <f>+O19*T19</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF19" s="7">
         <f>+P19*T19</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AG19" s="7">
         <f>+Q19*T19</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AH19" s="7">
         <f>+R19*T19</f>
@@ -3196,15 +3851,18 @@
         <v>2</v>
       </c>
       <c r="AK19" s="7">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="AL19" s="7">
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8">
         <v>1</v>
@@ -3235,35 +3893,35 @@
         <v>1</v>
       </c>
       <c r="L20" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M20" s="7">
         <f>+E20*L20</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
         <f>+F20*L20</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O20" s="7">
         <f>+G20*L20</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P20" s="7">
         <f>+H20*L20</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q20" s="7">
         <f>+I20*L20</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R20" s="7">
         <f>+J20*L20</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S20" s="7">
         <f>+K20*L20</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T20" s="7">
         <v>1</v>
@@ -3298,65 +3956,68 @@
       </c>
       <c r="AB20" s="7">
         <f>+L20*T20</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="7">
         <f>+M20*T20</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD20" s="7">
         <f>+N20*T20</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE20" s="7">
         <f>+O20*T20</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF20" s="7">
         <f>+P20*T20</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AG20" s="7">
         <f>+Q20*T20</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH20" s="7">
         <f>+R20*T20</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AI20" s="7">
         <f>+S20*T20</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK20" s="7">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="AL20" s="7">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
-        <v>19</v>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>14</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8">
         <v>1</v>
       </c>
       <c r="E21" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F21" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G21" s="7">
         <f>+E21*F21</f>
         <v>-1</v>
       </c>
       <c r="H21" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I21" s="7">
         <f>+E21*H21</f>
@@ -3368,10 +4029,10 @@
       </c>
       <c r="K21" s="7">
         <f>+G21*H21</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L21" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M21" s="7">
         <f>+E21*L21</f>
@@ -3383,7 +4044,7 @@
       </c>
       <c r="O21" s="7">
         <f>+G21*L21</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P21" s="7">
         <f>+H21*L21</f>
@@ -3391,18 +4052,18 @@
       </c>
       <c r="Q21" s="7">
         <f>+I21*L21</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R21" s="7">
         <f>+J21*L21</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S21" s="7">
         <f>+K21*L21</f>
         <v>-1</v>
       </c>
       <c r="T21" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U21" s="7">
         <f>+E21*T21</f>
@@ -3414,19 +4075,19 @@
       </c>
       <c r="W21" s="7">
         <f>+G21*T21</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X21" s="7">
         <f>+I21*T21</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y21" s="7">
         <f>+I21*T21</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z21" s="7">
         <f>+J21*T21</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA21" s="7">
         <f>+K21*T21</f>
@@ -3438,11 +4099,11 @@
       </c>
       <c r="AC21" s="7">
         <f>+M21*T21</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD21" s="7">
         <f>+N21*T21</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE21" s="7">
         <f>+O21*T21</f>
@@ -3450,7 +4111,7 @@
       </c>
       <c r="AF21" s="7">
         <f>+P21*T21</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AG21" s="7">
         <f>+Q21*T21</f>
@@ -3462,41 +4123,44 @@
       </c>
       <c r="AI21" s="7">
         <f>+S21*T21</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ21" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK21" s="7">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="AL21" s="7">
+        <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
-        <v>20</v>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>3</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D22" s="8">
         <v>1</v>
       </c>
       <c r="E22" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F22" s="7">
         <v>1</v>
       </c>
       <c r="G22" s="7">
         <f>+E22*F22</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H22" s="7">
         <v>-1</v>
       </c>
       <c r="I22" s="7">
         <f>+E22*H22</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J22" s="7">
         <f>+F22*H22</f>
@@ -3504,14 +4168,14 @@
       </c>
       <c r="K22" s="7">
         <f>+G22*H22</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L22" s="7">
         <v>-1</v>
       </c>
       <c r="M22" s="7">
         <f>+E22*L22</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N22" s="7">
         <f>+F22*L22</f>
@@ -3519,7 +4183,7 @@
       </c>
       <c r="O22" s="7">
         <f>+G22*L22</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P22" s="7">
         <f>+H22*L22</f>
@@ -3527,7 +4191,7 @@
       </c>
       <c r="Q22" s="7">
         <f>+I22*L22</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R22" s="7">
         <f>+J22*L22</f>
@@ -3535,10 +4199,10 @@
       </c>
       <c r="S22" s="7">
         <f>+K22*L22</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T22" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U22" s="7">
         <f>+E22*T22</f>
@@ -3546,7 +4210,7 @@
       </c>
       <c r="V22" s="7">
         <f>+F22*T22</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W22" s="7">
         <f>+G22*T22</f>
@@ -3562,7 +4226,7 @@
       </c>
       <c r="Z22" s="7">
         <f>+J22*T22</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA22" s="7">
         <f>+K22*T22</f>
@@ -3570,7 +4234,7 @@
       </c>
       <c r="AB22" s="7">
         <f>+L22*T22</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="7">
         <f>+M22*T22</f>
@@ -3578,7 +4242,7 @@
       </c>
       <c r="AD22" s="7">
         <f>+N22*T22</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE22" s="7">
         <f>+O22*T22</f>
@@ -3586,7 +4250,7 @@
       </c>
       <c r="AF22" s="7">
         <f>+P22*T22</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AG22" s="7">
         <f>+Q22*T22</f>
@@ -3594,7 +4258,7 @@
       </c>
       <c r="AH22" s="7">
         <f>+R22*T22</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AI22" s="7">
         <f>+S22*T22</f>
@@ -3604,35 +4268,38 @@
         <v>2</v>
       </c>
       <c r="AK22" s="7">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AL22" s="7">
+        <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B23" s="4">
-        <v>21</v>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
+        <v>22</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D23" s="8">
         <v>1</v>
       </c>
       <c r="E23" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F23" s="7">
         <v>-1</v>
       </c>
       <c r="G23" s="7">
         <f>+E23*F23</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
       </c>
       <c r="I23" s="7">
         <f>+E23*H23</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J23" s="7">
         <f>+F23*H23</f>
@@ -3640,14 +4307,14 @@
       </c>
       <c r="K23" s="7">
         <f>+G23*H23</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L23" s="7">
         <v>-1</v>
       </c>
       <c r="M23" s="7">
         <f>+E23*L23</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N23" s="7">
         <f>+F23*L23</f>
@@ -3655,7 +4322,7 @@
       </c>
       <c r="O23" s="7">
         <f>+G23*L23</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P23" s="7">
         <f>+H23*L23</f>
@@ -3663,7 +4330,7 @@
       </c>
       <c r="Q23" s="7">
         <f>+I23*L23</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R23" s="7">
         <f>+J23*L23</f>
@@ -3671,14 +4338,14 @@
       </c>
       <c r="S23" s="7">
         <f>+K23*L23</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T23" s="7">
         <v>1</v>
       </c>
       <c r="U23" s="7">
         <f>+E23*T23</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V23" s="7">
         <f>+F23*T23</f>
@@ -3686,15 +4353,15 @@
       </c>
       <c r="W23" s="7">
         <f>+G23*T23</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X23" s="7">
         <f>+I23*T23</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y23" s="7">
         <f>+I23*T23</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="7">
         <f>+J23*T23</f>
@@ -3702,7 +4369,7 @@
       </c>
       <c r="AA23" s="7">
         <f>+K23*T23</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB23" s="7">
         <f>+L23*T23</f>
@@ -3710,7 +4377,7 @@
       </c>
       <c r="AC23" s="7">
         <f>+M23*T23</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD23" s="7">
         <f>+N23*T23</f>
@@ -3718,7 +4385,7 @@
       </c>
       <c r="AE23" s="7">
         <f>+O23*T23</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF23" s="7">
         <f>+P23*T23</f>
@@ -3726,7 +4393,7 @@
       </c>
       <c r="AG23" s="7">
         <f>+Q23*T23</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH23" s="7">
         <f>+R23*T23</f>
@@ -3734,37 +4401,40 @@
       </c>
       <c r="AI23" s="7">
         <f>+S23*T23</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ23" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK23" s="7">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AL23" s="7">
+        <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
-        <v>22</v>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>27</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D24" s="8">
         <v>1</v>
       </c>
       <c r="E24" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F24" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G24" s="7">
         <f>+E24*F24</f>
         <v>-1</v>
       </c>
       <c r="H24" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I24" s="7">
         <f>+E24*H24</f>
@@ -3776,10 +4446,10 @@
       </c>
       <c r="K24" s="7">
         <f>+G24*H24</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L24" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M24" s="7">
         <f>+E24*L24</f>
@@ -3791,7 +4461,7 @@
       </c>
       <c r="O24" s="7">
         <f>+G24*L24</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P24" s="7">
         <f>+H24*L24</f>
@@ -3799,11 +4469,11 @@
       </c>
       <c r="Q24" s="7">
         <f>+I24*L24</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R24" s="7">
         <f>+J24*L24</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S24" s="7">
         <f>+K24*L24</f>
@@ -3814,11 +4484,11 @@
       </c>
       <c r="U24" s="7">
         <f>+E24*T24</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V24" s="7">
         <f>+F24*T24</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W24" s="7">
         <f>+G24*T24</f>
@@ -3838,11 +4508,11 @@
       </c>
       <c r="AA24" s="7">
         <f>+K24*T24</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB24" s="7">
         <f>+L24*T24</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="7">
         <f>+M24*T24</f>
@@ -3854,7 +4524,7 @@
       </c>
       <c r="AE24" s="7">
         <f>+O24*T24</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF24" s="7">
         <f>+P24*T24</f>
@@ -3862,11 +4532,11 @@
       </c>
       <c r="AG24" s="7">
         <f>+Q24*T24</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AH24" s="7">
         <f>+R24*T24</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AI24" s="7">
         <f>+S24*T24</f>
@@ -3876,15 +4546,18 @@
         <v>2</v>
       </c>
       <c r="AK24" s="7">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="AL24" s="7">
+        <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D25" s="8">
         <v>1</v>
@@ -3915,66 +4588,66 @@
         <v>-1</v>
       </c>
       <c r="L25" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M25" s="7">
         <f>+E25*L25</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N25" s="7">
         <f>+F25*L25</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O25" s="7">
         <f>+G25*L25</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P25" s="7">
         <f>+H25*L25</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q25" s="7">
         <f>+I25*L25</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R25" s="7">
         <f>+J25*L25</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S25" s="7">
         <f>+K25*L25</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T25" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U25" s="7">
         <f>+E25*T25</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V25" s="7">
         <f>+F25*T25</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W25" s="7">
         <f>+G25*T25</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X25" s="7">
         <f>+I25*T25</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="7">
         <f>+I25*T25</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z25" s="7">
         <f>+J25*T25</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA25" s="7">
         <f>+K25*T25</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB25" s="7">
         <f>+L25*T25</f>
@@ -4014,13 +4687,16 @@
       <c r="AK25" s="7">
         <v>1</v>
       </c>
+      <c r="AL25" s="7">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D26" s="8">
         <v>1</v>
@@ -4029,18 +4705,18 @@
         <v>1</v>
       </c>
       <c r="F26" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G26" s="7">
         <f>+E26*F26</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I26" s="7">
         <f>+E26*H26</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J26" s="7">
         <f>+F26*H26</f>
@@ -4059,19 +4735,19 @@
       </c>
       <c r="N26" s="7">
         <f>+F26*L26</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O26" s="7">
         <f>+G26*L26</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P26" s="7">
         <f>+H26*L26</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q26" s="7">
         <f>+I26*L26</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R26" s="7">
         <f>+J26*L26</f>
@@ -4082,11 +4758,11 @@
         <v>-1</v>
       </c>
       <c r="T26" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U26" s="7">
         <f>+E26*T26</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V26" s="7">
         <f>+F26*T26</f>
@@ -4106,19 +4782,19 @@
       </c>
       <c r="Z26" s="7">
         <f>+J26*T26</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA26" s="7">
         <f>+K26*T26</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB26" s="7">
         <f>+L26*T26</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC26" s="7">
         <f>+M26*T26</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="7">
         <f>+N26*T26</f>
@@ -4138,25 +4814,28 @@
       </c>
       <c r="AH26" s="7">
         <f>+R26*T26</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AI26" s="7">
         <f>+S26*T26</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK26" s="7">
         <v>2</v>
       </c>
+      <c r="AL26" s="7">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="D27" s="8">
         <v>1</v>
@@ -4218,81 +4897,84 @@
         <v>-1</v>
       </c>
       <c r="T27" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U27" s="7">
         <f>+E27*T27</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V27" s="7">
         <f>+F27*T27</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W27" s="7">
         <f>+G27*T27</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X27" s="7">
         <f>+I27*T27</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y27" s="7">
         <f>+I27*T27</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z27" s="7">
         <f>+J27*T27</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA27" s="7">
         <f>+K27*T27</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB27" s="7">
         <f>+L27*T27</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC27" s="7">
         <f>+M27*T27</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD27" s="7">
         <f>+N27*T27</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE27" s="7">
         <f>+O27*T27</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF27" s="7">
         <f>+P27*T27</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AG27" s="7">
         <f>+Q27*T27</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH27" s="7">
         <f>+R27*T27</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AI27" s="7">
         <f>+S27*T27</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ27" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK27" s="7">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="AL27" s="7">
+        <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D28" s="8">
         <v>1</v>
@@ -4301,18 +4983,18 @@
         <v>1</v>
       </c>
       <c r="F28" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G28" s="7">
         <f>+E28*F28</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H28" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I28" s="7">
         <f>+E28*H28</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J28" s="7">
         <f>+F28*H28</f>
@@ -4323,11 +5005,11 @@
         <v>1</v>
       </c>
       <c r="L28" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M28" s="7">
         <f>+E28*L28</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N28" s="7">
         <f>+F28*L28</f>
@@ -4347,18 +5029,18 @@
       </c>
       <c r="R28" s="7">
         <f>+J28*L28</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S28" s="7">
         <f>+K28*L28</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T28" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U28" s="7">
         <f>+E28*T28</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V28" s="7">
         <f>+F28*T28</f>
@@ -4378,11 +5060,11 @@
       </c>
       <c r="Z28" s="7">
         <f>+J28*T28</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA28" s="7">
         <f>+K28*T28</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB28" s="7">
         <f>+L28*T28</f>
@@ -4394,19 +5076,19 @@
       </c>
       <c r="AD28" s="7">
         <f>+N28*T28</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE28" s="7">
         <f>+O28*T28</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF28" s="7">
         <f>+P28*T28</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AG28" s="7">
         <f>+Q28*T28</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AH28" s="7">
         <f>+R28*T28</f>
@@ -4420,35 +5102,38 @@
         <v>2</v>
       </c>
       <c r="AK28" s="7">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="AL28" s="7">
+        <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B29" s="4">
-        <v>27</v>
+    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
+        <v>20</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="D29" s="8">
         <v>1</v>
       </c>
       <c r="E29" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F29" s="7">
         <v>1</v>
       </c>
       <c r="G29" s="7">
         <f>+E29*F29</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H29" s="7">
         <v>-1</v>
       </c>
       <c r="I29" s="7">
         <f>+E29*H29</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J29" s="7">
         <f>+F29*H29</f>
@@ -4456,10 +5141,10 @@
       </c>
       <c r="K29" s="7">
         <f>+G29*H29</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L29" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M29" s="7">
         <f>+E29*L29</f>
@@ -4467,7 +5152,7 @@
       </c>
       <c r="N29" s="7">
         <f>+F29*L29</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O29" s="7">
         <f>+G29*L29</f>
@@ -4475,7 +5160,7 @@
       </c>
       <c r="P29" s="7">
         <f>+H29*L29</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q29" s="7">
         <f>+I29*L29</f>
@@ -4483,7 +5168,7 @@
       </c>
       <c r="R29" s="7">
         <f>+J29*L29</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S29" s="7">
         <f>+K29*L29</f>
@@ -4494,7 +5179,7 @@
       </c>
       <c r="U29" s="7">
         <f>+E29*T29</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V29" s="7">
         <f>+F29*T29</f>
@@ -4502,15 +5187,15 @@
       </c>
       <c r="W29" s="7">
         <f>+G29*T29</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X29" s="7">
         <f>+I29*T29</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y29" s="7">
         <f>+I29*T29</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z29" s="7">
         <f>+J29*T29</f>
@@ -4518,11 +5203,11 @@
       </c>
       <c r="AA29" s="7">
         <f>+K29*T29</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB29" s="7">
         <f>+L29*T29</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC29" s="7">
         <f>+M29*T29</f>
@@ -4530,7 +5215,7 @@
       </c>
       <c r="AD29" s="7">
         <f>+N29*T29</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE29" s="7">
         <f>+O29*T29</f>
@@ -4538,7 +5223,7 @@
       </c>
       <c r="AF29" s="7">
         <f>+P29*T29</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AG29" s="7">
         <f>+Q29*T29</f>
@@ -4546,7 +5231,7 @@
       </c>
       <c r="AH29" s="7">
         <f>+R29*T29</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AI29" s="7">
         <f>+S29*T29</f>
@@ -4556,31 +5241,34 @@
         <v>2</v>
       </c>
       <c r="AK29" s="7">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="AL29" s="7">
+        <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B30" s="7">
-        <v>28</v>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B30" s="4">
+        <v>29</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="D30" s="8">
         <v>1</v>
       </c>
       <c r="E30" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F30" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G30" s="7">
         <f>+E30*F30</f>
         <v>1</v>
       </c>
       <c r="H30" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I30" s="7">
         <f>+E30*H30</f>
@@ -4592,18 +5280,18 @@
       </c>
       <c r="K30" s="7">
         <f>+G30*H30</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L30" s="7">
         <v>1</v>
       </c>
       <c r="M30" s="7">
         <f>+E30*L30</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="N30" s="7">
         <f>+F30*L30</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O30" s="7">
         <f>+G30*L30</f>
@@ -4611,7 +5299,7 @@
       </c>
       <c r="P30" s="7">
         <f>+H30*L30</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q30" s="7">
         <f>+I30*L30</f>
@@ -4623,18 +5311,18 @@
       </c>
       <c r="S30" s="7">
         <f>+K30*L30</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T30" s="7">
         <v>1</v>
       </c>
       <c r="U30" s="7">
         <f>+E30*T30</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V30" s="7">
         <f>+F30*T30</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W30" s="7">
         <f>+G30*T30</f>
@@ -4654,7 +5342,7 @@
       </c>
       <c r="AA30" s="7">
         <f>+K30*T30</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB30" s="7">
         <f>+L30*T30</f>
@@ -4662,11 +5350,11 @@
       </c>
       <c r="AC30" s="7">
         <f>+M30*T30</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD30" s="7">
         <f>+N30*T30</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE30" s="7">
         <f>+O30*T30</f>
@@ -4674,7 +5362,7 @@
       </c>
       <c r="AF30" s="7">
         <f>+P30*T30</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AG30" s="7">
         <f>+Q30*T30</f>
@@ -4686,37 +5374,40 @@
       </c>
       <c r="AI30" s="7">
         <f>+S30*T30</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ30" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK30" s="7">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="AL30" s="7">
+        <v>6</v>
       </c>
     </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B31" s="4">
-        <v>29</v>
+    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
+        <v>12</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D31" s="8">
         <v>1</v>
       </c>
       <c r="E31" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F31" s="7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G31" s="7">
         <f>+E31*F31</f>
         <v>1</v>
       </c>
       <c r="H31" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I31" s="7">
         <f>+E31*H31</f>
@@ -4728,18 +5419,18 @@
       </c>
       <c r="K31" s="7">
         <f>+G31*H31</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L31" s="7">
         <v>1</v>
       </c>
       <c r="M31" s="7">
         <f>+E31*L31</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N31" s="7">
         <f>+F31*L31</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O31" s="7">
         <f>+G31*L31</f>
@@ -4747,7 +5438,7 @@
       </c>
       <c r="P31" s="7">
         <f>+H31*L31</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q31" s="7">
         <f>+I31*L31</f>
@@ -4759,10 +5450,10 @@
       </c>
       <c r="S31" s="7">
         <f>+K31*L31</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="T31" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U31" s="7">
         <f>+E31*T31</f>
@@ -4774,19 +5465,19 @@
       </c>
       <c r="W31" s="7">
         <f>+G31*T31</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X31" s="7">
         <f>+I31*T31</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y31" s="7">
         <f>+I31*T31</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z31" s="7">
         <f>+J31*T31</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA31" s="7">
         <f>+K31*T31</f>
@@ -4794,7 +5485,7 @@
       </c>
       <c r="AB31" s="7">
         <f>+L31*T31</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC31" s="7">
         <f>+M31*T31</f>
@@ -4806,7 +5497,7 @@
       </c>
       <c r="AE31" s="7">
         <f>+O31*T31</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF31" s="7">
         <f>+P31*T31</f>
@@ -4814,11 +5505,11 @@
       </c>
       <c r="AG31" s="7">
         <f>+Q31*T31</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AH31" s="7">
         <f>+R31*T31</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AI31" s="7">
         <f>+S31*T31</f>
@@ -4828,35 +5519,38 @@
         <v>2</v>
       </c>
       <c r="AK31" s="7">
+        <v>3</v>
+      </c>
+      <c r="AL31" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B32" s="4">
+        <v>5</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B32" s="7">
-        <v>30</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="D32" s="8">
         <v>1</v>
       </c>
       <c r="E32" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F32" s="7">
         <v>-1</v>
       </c>
       <c r="G32" s="7">
         <f>+E32*F32</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
       </c>
       <c r="I32" s="7">
         <f>+E32*H32</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J32" s="7">
         <f>+F32*H32</f>
@@ -4864,10 +5558,10 @@
       </c>
       <c r="K32" s="7">
         <f>+G32*H32</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L32" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M32" s="7">
         <f>+E32*L32</f>
@@ -4875,7 +5569,7 @@
       </c>
       <c r="N32" s="7">
         <f>+F32*L32</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O32" s="7">
         <f>+G32*L32</f>
@@ -4883,7 +5577,7 @@
       </c>
       <c r="P32" s="7">
         <f>+H32*L32</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Q32" s="7">
         <f>+I32*L32</f>
@@ -4891,14 +5585,14 @@
       </c>
       <c r="R32" s="7">
         <f>+J32*L32</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S32" s="7">
         <f>+K32*L32</f>
         <v>-1</v>
       </c>
       <c r="T32" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="U32" s="7">
         <f>+E32*T32</f>
@@ -4906,7 +5600,7 @@
       </c>
       <c r="V32" s="7">
         <f>+F32*T32</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W32" s="7">
         <f>+G32*T32</f>
@@ -4922,7 +5616,7 @@
       </c>
       <c r="Z32" s="7">
         <f>+J32*T32</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA32" s="7">
         <f>+K32*T32</f>
@@ -4934,7 +5628,7 @@
       </c>
       <c r="AC32" s="7">
         <f>+M32*T32</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD32" s="7">
         <f>+N32*T32</f>
@@ -4942,7 +5636,7 @@
       </c>
       <c r="AE32" s="7">
         <f>+O32*T32</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF32" s="7">
         <f>+P32*T32</f>
@@ -4950,7 +5644,7 @@
       </c>
       <c r="AG32" s="7">
         <f>+Q32*T32</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AH32" s="7">
         <f>+R32*T32</f>
@@ -4958,21 +5652,24 @@
       </c>
       <c r="AI32" s="7">
         <f>+S32*T32</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ32" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK32" s="7">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="AL32" s="7">
+        <v>7</v>
       </c>
     </row>
-    <row r="33" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D33" s="8">
         <v>1</v>
@@ -4981,18 +5678,18 @@
         <v>-1</v>
       </c>
       <c r="F33" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G33" s="7">
         <f>+E33*F33</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H33" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I33" s="7">
         <f>+E33*H33</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J33" s="7">
         <f>+F33*H33</f>
@@ -5003,11 +5700,11 @@
         <v>-1</v>
       </c>
       <c r="L33" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="M33" s="7">
         <f>+E33*L33</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N33" s="7">
         <f>+F33*L33</f>
@@ -5027,11 +5724,11 @@
       </c>
       <c r="R33" s="7">
         <f>+J33*L33</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="S33" s="7">
         <f>+K33*L33</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T33" s="7">
         <v>1</v>
@@ -5042,19 +5739,19 @@
       </c>
       <c r="V33" s="7">
         <f>+F33*T33</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W33" s="7">
         <f>+G33*T33</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X33" s="7">
         <f>+I33*T33</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y33" s="7">
         <f>+I33*T33</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z33" s="7">
         <f>+J33*T33</f>
@@ -5066,11 +5763,11 @@
       </c>
       <c r="AB33" s="7">
         <f>+L33*T33</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC33" s="7">
         <f>+M33*T33</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD33" s="7">
         <f>+N33*T33</f>
@@ -5090,20 +5787,23 @@
       </c>
       <c r="AH33" s="7">
         <f>+R33*T33</f>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AI33" s="7">
         <f>+S33*T33</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AJ33" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK33" s="7">
         <v>3</v>
       </c>
+      <c r="AL33" s="7">
+        <v>8</v>
+      </c>
     </row>
-    <row r="34" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B34" s="7">
         <v>32</v>
       </c>
@@ -5238,52 +5938,80 @@
       <c r="AK34" s="7">
         <v>4</v>
       </c>
+      <c r="AL34" s="7">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:AK2" xr:uid="{B516856A-01D2-44BB-A099-3D88717A7A82}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:AK34">
-      <sortCondition ref="B2"/>
+  <autoFilter ref="B2:AL34" xr:uid="{B516856A-01D2-44BB-A099-3D88717A7A82}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:AL34">
+      <sortCondition ref="AJ2:AJ34"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="E3:F34">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H34">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L34">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T34">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:AI34">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:AI34">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ3:AK34">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
       <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL3:AL34">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+      <formula>3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL1:AL1048576">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
